--- a/Documentacion/Documentación Proyecto/ListaRequerimientos.xlsx
+++ b/Documentacion/Documentación Proyecto/ListaRequerimientos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="138">
   <si>
     <t>Importancia</t>
   </si>
@@ -191,18 +191,9 @@
     <t>RF-18.1</t>
   </si>
   <si>
-    <t>Visualizar Favoritos</t>
-  </si>
-  <si>
     <t>Visualizar puntuación y comentarios</t>
   </si>
   <si>
-    <t>El usuario cliente podrá agregar o quitar de favoritos los usuarios que brindan servicios</t>
-  </si>
-  <si>
-    <t>El usuario cliente podrá visualizar sus usuarios agregados a favoritos.</t>
-  </si>
-  <si>
     <t>El usuario cliente podrá visualizar su puntuación y comentarios.</t>
   </si>
   <si>
@@ -260,9 +251,6 @@
     <t>Listado de Postulación a ofertas laborales propias</t>
   </si>
   <si>
-    <t>Agregar y Quitar de Favoritos un prestador de servicio</t>
-  </si>
-  <si>
     <t>Alta de súper administrador</t>
   </si>
   <si>
@@ -389,12 +377,6 @@
     <t>RF-19.1</t>
   </si>
   <si>
-    <t>Agregar y Quitar de Amigos</t>
-  </si>
-  <si>
-    <t>El usuario cliente podrá asociar o quitar amigos a su cuenta, de esta forma visualizará en destacados los trabajadores contratados por su grupo de amigos. Ver si agrega los amigos con Mail o NombreUsuario.</t>
-  </si>
-  <si>
     <t>Todo usuario cliente tendrá la posibilidad de denunciar publicaciiones o usuarios. Dichas denuncias serán atendidas por los usuarios administradores. Ver como notificamos (mail?)</t>
   </si>
   <si>
@@ -416,9 +398,6 @@
     <t>Denunciar Publicación/Postulación/Usuario</t>
   </si>
   <si>
-    <t>RF-21.1</t>
-  </si>
-  <si>
     <t>Idenificar mejor oferta de la publicación</t>
   </si>
   <si>
@@ -437,7 +416,28 @@
     <t>RF-12.4</t>
   </si>
   <si>
-    <t>RF-22.1</t>
+    <t>RF-10.2</t>
+  </si>
+  <si>
+    <t>Aprobación de oferta laboral</t>
+  </si>
+  <si>
+    <t>El usuario administrador será encargado de aprobar las publicaciones que se encuentren en estado pendiente de aprobación. En caso de aprobarlas quedarán visibles para todos aquellos usuarios clientes. En caso de rechazarlas, podrá realizar un comentario del motivo de rechazo, notificando al usuario cliente correspondiente.</t>
+  </si>
+  <si>
+    <t>Posibilidad de ingreso con Facebook</t>
+  </si>
+  <si>
+    <t>El usuario cliente podrá ingresar al sistema utilizando su cuenta de Facebook. De esta manera, cuando el usuario cliente busca un prestador de servicios, podrá visualizar además del listado del RF-7.1, aquellos que fueron contratados por sus amigos de Facebook con cuenta en el sistema.</t>
+  </si>
+  <si>
+    <t>RFN-3</t>
+  </si>
+  <si>
+    <t>Protección de datos personales</t>
+  </si>
+  <si>
+    <t>Se cumplirá con la Ley Nro. 18.331 referente a la protección de datos personales.</t>
   </si>
 </sst>
 </file>
@@ -843,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="D28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -862,7 +862,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D1" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -870,13 +870,13 @@
         <v>7</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>0</v>
@@ -902,10 +902,10 @@
         <v>6</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -922,10 +922,10 @@
         <v>9</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -939,13 +939,13 @@
         <v>8</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -953,19 +953,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -973,7 +973,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>8</v>
@@ -985,7 +985,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -1002,10 +1002,10 @@
         <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -1025,7 +1025,7 @@
         <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1039,13 +1039,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1053,19 +1053,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>8</v>
@@ -1082,10 +1082,10 @@
         <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -1099,13 +1099,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -1122,10 +1122,10 @@
         <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1142,10 +1142,10 @@
         <v>26</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -1162,10 +1162,10 @@
         <v>28</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -1179,13 +1179,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>8</v>
@@ -1205,7 +1205,7 @@
         <v>30</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -1222,10 +1222,10 @@
         <v>33</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>8</v>
@@ -1242,10 +1242,10 @@
         <v>36</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1253,19 +1253,19 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1273,7 +1273,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>8</v>
@@ -1285,7 +1285,7 @@
         <v>35</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1293,19 +1293,19 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -1313,19 +1313,19 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>8</v>
@@ -1345,7 +1345,7 @@
         <v>47</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -1362,70 +1362,70 @@
         <v>3</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="B28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -1433,19 +1433,19 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -1453,237 +1453,239 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="6" t="s">
+      <c r="B33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+      <c r="D33" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+      <c r="B34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="6" t="s">
+      <c r="B35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D35" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+      <c r="E35" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+      <c r="B36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+      <c r="B37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D37" s="2" t="s">
+      <c r="B38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D39" s="2" t="s">
+      <c r="B40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+      <c r="A41" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B42" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="D42" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
@@ -1691,19 +1693,19 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
@@ -1713,7 +1715,7 @@
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -1723,7 +1725,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C45" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
